--- a/Översikt KALIX.xlsx
+++ b/Översikt KALIX.xlsx
@@ -575,7 +575,7 @@
         <v>45188</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44530</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>45846.56134259259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44510</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44369</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>44805</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>44510</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>45505</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>45268.71260416666</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45617</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>44442.42032407408</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>44728.61793981482</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>44467</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>44791.61581018518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>44286</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>45888.65668981482</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>45810</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>45817.3472337963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>44274</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>46030.54833333333</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>46036.60225694445</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>46002.45457175926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>45063</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>44860.95483796296</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>44375</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>44245</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         <v>44449</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>44489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>44812</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>44853.92756944444</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>44327</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>44298</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>44497</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>44577.70938657408</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>44344</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>44756</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>44577.69899305556</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>44862</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>44669</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>44379</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>44287</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>44456.41886574074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44720</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44879</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44776.66797453703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>44880</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>44286</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>44300</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>44319</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>44319</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>44319</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44391</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44512</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>44851</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44381</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44435</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>44455</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>44459</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>44469.40788194445</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>44379</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>44529</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>44354</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>44386</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>44544</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>44350</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>44785.58358796296</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44435.62583333333</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         <v>44874.48328703704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5271,7 +5271,7 @@
         <v>44361.44074074074</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>44371</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>44382</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5442,7 +5442,7 @@
         <v>44382</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5499,7 +5499,7 @@
         <v>44461</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>44470.55629629629</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>44636.94204861111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>44733.4328125</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>44860.95476851852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44833</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44368</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44426</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>44350</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>44785</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44721</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44522.64253472222</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44386</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>44244</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>44508.92340277778</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>45229</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>45748.64383101852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>45748.68537037037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>45457.43016203704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44340.65699074074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>45537.82020833333</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>44903.87568287037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44648.40035879629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>45204</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>45266</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44816</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>45569</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>45280</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>45585.88642361111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>44512</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>44874.95347222222</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>45589.45561342593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>45462.60603009259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>44442</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>44529</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>44733.64865740741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>45600.43767361111</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>45117.44940972222</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>45681.67431712963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>45295.41796296297</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>45712.65888888889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>45574</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>45645.39828703704</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>45761.48025462963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>44945</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>45600.41362268518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>44894</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>44894</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>45665.45089120371</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>45712.65548611111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>45629</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>45147</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>44970.52166666667</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>44970.54061342592</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>45259.65206018519</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>45266</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44377</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>45363.46945601852</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>45798.59459490741</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>45645.55509259259</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>45173</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>45799.61495370371</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>45799.65663194445</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>45799.61538194444</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>45799.49063657408</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>45771.3512962963</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>45799.51076388889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>45799.51096064815</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45799.63135416667</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>45798.59416666667</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>45798.59457175926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>45681.36236111111</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>45799.6247337963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>45714.53447916666</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>45586.5952662037</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>45541</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>45406</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>45708.58085648148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>45555.49041666667</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>45510.97233796296</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>45170</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>45225</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>45805.57423611111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>45810.44814814815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>45190</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>45811.69864583333</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>45660.45283564815</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>45811.69857638889</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>45811.69862268519</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>45841.59421296296</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>45810.64746527778</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>45692.63893518518</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>45721</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>45719.51630787037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>45719.52578703704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>45811.63658564815</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11136,7 +11136,7 @@
         <v>45889.40050925926</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11193,7 +11193,7 @@
         <v>45321</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11250,7 +11250,7 @@
         <v>45737.51363425926</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11307,7 +11307,7 @@
         <v>45799.51091435185</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
         <v>45890.39974537037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>45667</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>45259.6208912037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>45813.34603009259</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>45890.67737268518</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>45201.65041666666</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>45812.38606481482</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>45816.57137731482</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>45816.58204861111</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>45816.63277777778</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>45816.69568287037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>45817.46805555555</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>45815.63855324074</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>45815.68703703704</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>45816.58614583333</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>45816.62489583333</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>45816.63829861111</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>45816.68195601852</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>45816.69780092593</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>45816.57533564815</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>45816.63599537037</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>45816.64159722222</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>45816.65658564815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>45816.66149305556</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>45816.66796296297</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>45816.68586805555</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>45816.69010416666</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>45892</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>45892</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>45815.67590277778</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>45816.58965277778</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>45816.59293981481</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>45816.65878472223</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13250,7 +13250,7 @@
         <v>45817.59512731482</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>45895.36069444445</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>45817.46548611111</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>45815.69028935185</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>45816.57856481482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>45815.68055555555</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>44379</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>45835.61560185185</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>45819.60979166667</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>45898.34438657408</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>45827.32677083334</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         <v>45784.51063657407</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         <v>45259.60369212963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         <v>45222.70152777778</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14058,7 +14058,7 @@
         <v>45660.46960648148</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         <v>45820.57342592593</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>45820.57344907407</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>45903</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>45903.41075231481</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>45415.9237037037</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44580</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>45904.36505787037</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>45904.40694444445</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>45909</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>45906.56337962963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>45569</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>45246</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>45909.60957175926</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>45825.44418981481</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>45708.56344907408</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>45708.57732638889</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>45909.42157407408</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>45825.4837962963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>45910.41881944444</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>45827.32819444445</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>45915.6815162037</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>45827.38586805556</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>45827.57340277778</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>45915.67467592593</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>45894.35148148148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>45912.36501157407</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>44936.40097222223</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>45917.67791666667</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         <v>45916</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>45259.64317129629</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>45918</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>45191</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>44244</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>45831.55346064815</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>45919</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>45461</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>45321.38069444444</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>45609.51568287037</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>45832.7091087963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>45699.34594907407</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44924</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>45770</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>45832.54734953704</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>44529</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>45063</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>45714.49681712963</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>45925.71914351852</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>45925.69836805556</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>45667.44277777777</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>45835.61568287037</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>45079</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>45929.63689814815</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>45929.53196759259</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>45355.59298611111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>45926.50899305556</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>45594.71903935185</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>45770.65853009259</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>45835.61546296296</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>45835.61557870371</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>45586.47526620371</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>45553.70454861111</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>45930.63586805556</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>45681.6428125</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>45681.65133101852</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>45681.66283564815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>45931.61518518518</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17922,7 +17922,7 @@
         <v>45930.63688657407</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17984,7 +17984,7 @@
         <v>45930.59421296296</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>45932.43586805555</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>45932</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>45932.31650462963</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>45933</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>45932.53887731482</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>45936.39930555555</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>45936.46914351852</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>45936.53765046296</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>45933.83770833333</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>45936.44674768519</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>45936.45769675926</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>45936.39701388889</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>45936.40606481482</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>45936.54344907407</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>45937.44954861111</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>45841</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>45937.31103009259</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>45939.63583333333</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19082,7 +19082,7 @@
         <v>45813.54255787037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19139,7 +19139,7 @@
         <v>45938.60688657407</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>45938.68094907407</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19253,7 +19253,7 @@
         <v>45678.60017361111</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19310,7 +19310,7 @@
         <v>45105.92538194444</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19367,7 +19367,7 @@
         <v>45842.44878472222</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>45943.64177083333</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>45943</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>45641.49390046296</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>45226</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19657,7 +19657,7 @@
         <v>45943.37773148148</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19714,7 +19714,7 @@
         <v>45940.57333333333</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19776,7 +19776,7 @@
         <v>45401</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19833,7 +19833,7 @@
         <v>45943</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19890,7 +19890,7 @@
         <v>44776.46675925926</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>45842.42744212963</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20009,7 +20009,7 @@
         <v>45842.42745370371</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         <v>45944.64761574074</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20123,7 +20123,7 @@
         <v>45945.60736111111</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20180,7 +20180,7 @@
         <v>45945.6286574074</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20237,7 +20237,7 @@
         <v>45945</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>45945.62322916667</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20351,7 +20351,7 @@
         <v>45945.40769675926</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20408,7 +20408,7 @@
         <v>45510.9696412037</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20470,7 +20470,7 @@
         <v>45945.42207175926</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20527,7 +20527,7 @@
         <v>45946.641875</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20584,7 +20584,7 @@
         <v>45719.39393518519</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20641,7 +20641,7 @@
         <v>45931</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20698,7 +20698,7 @@
         <v>45946.63607638889</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20760,7 +20760,7 @@
         <v>45946.6365162037</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>45638.63635416667</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>45950.62233796297</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>45587</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>45950.61921296296</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21065,7 +21065,7 @@
         <v>45851.86467592593</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21122,7 +21122,7 @@
         <v>45950</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21179,7 +21179,7 @@
         <v>45805.62303240741</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>45859.62895833333</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>45859.62603009259</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>45063.62370370371</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>45950.61949074074</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21469,7 +21469,7 @@
         <v>45950</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>45951.67826388889</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>45950</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>45950</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>45772.49703703704</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>45952.63594907407</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>44981</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>45866.526875</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>45867.53866898148</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>45747.57925925926</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>45952.59446759259</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>45259.46042824074</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>45869.59483796296</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>45869.59835648148</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>45681.65606481482</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>45869.61380787037</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>45869.60674768518</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>45869.61506944444</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>45869.61163194444</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>45265</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>45215</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>45266</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>45266</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>45639.51585648148</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>45054</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>45460</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>45632.57121527778</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>45406.9640625</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>45810</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>45881.57527777777</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>45385.44969907407</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>45881.5740162037</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>45881.57421296297</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23375,7 +23375,7 @@
         <v>45859.6357175926</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>45965.42752314815</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>45881.57375</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>45964.49586805556</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>45881.57342592593</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>45881.57408564815</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23752,7 +23752,7 @@
         <v>45238.64976851852</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23809,7 +23809,7 @@
         <v>45243</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23866,7 +23866,7 @@
         <v>45881.57458333333</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23928,7 +23928,7 @@
         <v>45965.42761574074</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23985,7 +23985,7 @@
         <v>45965.48136574074</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24042,7 +24042,7 @@
         <v>45964</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24099,7 +24099,7 @@
         <v>45691.49449074074</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24156,7 +24156,7 @@
         <v>45881.57532407407</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24218,7 +24218,7 @@
         <v>45881.57380787037</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>45967.36601851852</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24357,7 +24357,7 @@
         <v>45971.46945601852</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24414,7 +24414,7 @@
         <v>45971.44833333333</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24471,7 +24471,7 @@
         <v>45968.47590277778</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24528,7 +24528,7 @@
         <v>45971.46922453704</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24585,7 +24585,7 @@
         <v>45971.44854166666</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24642,7 +24642,7 @@
         <v>45968.46083333333</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24699,7 +24699,7 @@
         <v>45772.49487268519</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24756,7 +24756,7 @@
         <v>45841.61493055556</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         <v>44706.92641203704</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24875,7 +24875,7 @@
         <v>45975.43135416666</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24932,7 +24932,7 @@
         <v>45462.6018287037</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24994,7 +24994,7 @@
         <v>45541</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25051,7 +25051,7 @@
         <v>45037</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25108,7 +25108,7 @@
         <v>45735</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25165,7 +25165,7 @@
         <v>45740</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25222,7 +25222,7 @@
         <v>45979</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>46021.54532407408</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>45642.69934027778</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>45246.58479166667</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25450,7 +25450,7 @@
         <v>46021.48987268518</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         <v>46021.4858912037</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25564,7 +25564,7 @@
         <v>45816</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25621,7 +25621,7 @@
         <v>45840</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>45582.76248842593</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25735,7 +25735,7 @@
         <v>45735</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25792,7 +25792,7 @@
         <v>45979</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25849,7 +25849,7 @@
         <v>45980.2478125</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         <v>45980.2719212963</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25963,7 +25963,7 @@
         <v>45981.28849537037</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>45251</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>45673</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>45981.40686342592</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26196,7 +26196,7 @@
         <v>45457</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         <v>44950</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26310,7 +26310,7 @@
         <v>45980.27033564815</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26367,7 +26367,7 @@
         <v>45980.24248842592</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>44581</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>45754.53125</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>44907</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>44903</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
         <v>45419.949375</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>45985.38268518518</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>45985.4762962963</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>45706.42768518518</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>45985.4790162037</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>45985.58087962963</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         <v>45985.44723379629</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27076,7 +27076,7 @@
         <v>45985.43519675926</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>45985.48043981481</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27195,7 +27195,7 @@
         <v>46021.48355324074</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27252,7 +27252,7 @@
         <v>45985.31954861111</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27309,7 +27309,7 @@
         <v>46029</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27366,7 +27366,7 @@
         <v>45112</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27423,7 +27423,7 @@
         <v>46029.55248842593</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27480,7 +27480,7 @@
         <v>46029.55306712963</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27537,7 +27537,7 @@
         <v>45986.52354166667</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27599,7 +27599,7 @@
         <v>45986.52859953704</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27661,7 +27661,7 @@
         <v>44901</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>46029.54219907407</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27780,7 +27780,7 @@
         <v>46031.52017361111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         <v>46030</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27894,7 +27894,7 @@
         <v>45988.65793981482</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>46031.42599537037</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28008,7 +28008,7 @@
         <v>45641.52986111111</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28065,7 +28065,7 @@
         <v>45989</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28127,7 +28127,7 @@
         <v>45213.65107638889</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>45575.36655092592</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28241,7 +28241,7 @@
         <v>46031.42508101852</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28298,7 +28298,7 @@
         <v>45988.65796296296</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28355,7 +28355,7 @@
         <v>45299.93310185185</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28412,7 +28412,7 @@
         <v>45730.53193287037</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>44335</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         <v>45993.54071759259</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28588,7 +28588,7 @@
         <v>45993.5291087963</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>45314</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28702,7 +28702,7 @@
         <v>45993.63994212963</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28759,7 +28759,7 @@
         <v>46035.64942129629</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28816,7 +28816,7 @@
         <v>45308</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28873,7 +28873,7 @@
         <v>45993.5033912037</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>45492</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28992,7 +28992,7 @@
         <v>45560.55266203704</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29054,7 +29054,7 @@
         <v>45112.32819444445</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29111,7 +29111,7 @@
         <v>45698</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>46030.61548611111</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29225,7 +29225,7 @@
         <v>44749.6044675926</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>45994.64605324074</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29344,7 +29344,7 @@
         <v>45723.36494212963</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29401,7 +29401,7 @@
         <v>45719.53412037037</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29458,7 +29458,7 @@
         <v>45719.54244212963</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29515,7 +29515,7 @@
         <v>46035.61501157407</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29572,7 +29572,7 @@
         <v>45629</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29629,7 +29629,7 @@
         <v>45994.5734375</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29686,7 +29686,7 @@
         <v>44898.98259259259</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29743,7 +29743,7 @@
         <v>45995.59439814815</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>46036.61466435185</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29867,7 +29867,7 @@
         <v>45994.66059027778</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29924,7 +29924,7 @@
         <v>46035.65393518518</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>45993.88663194444</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30038,7 +30038,7 @@
         <v>45993.87747685185</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30095,7 +30095,7 @@
         <v>45993.88168981481</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30152,7 +30152,7 @@
         <v>45772.48039351852</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30209,7 +30209,7 @@
         <v>46030</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30266,7 +30266,7 @@
         <v>45999.4484375</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30323,7 +30323,7 @@
         <v>45210</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30385,7 +30385,7 @@
         <v>45622</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30442,7 +30442,7 @@
         <v>46041.6484375</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30499,7 +30499,7 @@
         <v>45996.6802662037</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30556,7 +30556,7 @@
         <v>44520.84179398148</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30613,7 +30613,7 @@
         <v>46041.65288194444</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30670,7 +30670,7 @@
         <v>46041.58980324074</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30727,7 +30727,7 @@
         <v>45175.95799768518</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30789,7 +30789,7 @@
         <v>46001.47069444445</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30846,7 +30846,7 @@
         <v>45602.43773148148</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30903,7 +30903,7 @@
         <v>46003.39039351852</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30960,7 +30960,7 @@
         <v>46003</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31017,7 +31017,7 @@
         <v>46003</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31074,7 +31074,7 @@
         <v>46003.38666666667</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31131,7 +31131,7 @@
         <v>46003.38894675926</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31188,7 +31188,7 @@
         <v>46003</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31245,7 +31245,7 @@
         <v>46003.47017361111</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31302,7 +31302,7 @@
         <v>46003</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31359,7 +31359,7 @@
         <v>45588.345625</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31416,7 +31416,7 @@
         <v>46003</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31473,7 +31473,7 @@
         <v>46002.41486111111</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31530,7 +31530,7 @@
         <v>46003.47009259259</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>46003</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31644,7 +31644,7 @@
         <v>46003</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31701,7 +31701,7 @@
         <v>44964.9440625</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31763,7 +31763,7 @@
         <v>46003.46508101852</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31820,7 +31820,7 @@
         <v>46003</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31877,7 +31877,7 @@
         <v>46003</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31934,7 +31934,7 @@
         <v>46003.47005787037</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31991,7 +31991,7 @@
         <v>46003.39394675926</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>46003.5743287037</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32105,7 +32105,7 @@
         <v>45159</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32162,7 +32162,7 @@
         <v>45302.70443287037</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32219,7 +32219,7 @@
         <v>44970</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32276,7 +32276,7 @@
         <v>46003</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32333,7 +32333,7 @@
         <v>45772</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32395,7 +32395,7 @@
         <v>45632.47152777778</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32452,7 +32452,7 @@
         <v>46009.63621527778</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32514,7 +32514,7 @@
         <v>45981</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32571,7 +32571,7 @@
         <v>45420.96472222222</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>45678.60608796297</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>45204.41158564815</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32747,7 +32747,7 @@
         <v>46009</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32809,7 +32809,7 @@
         <v>46009.70168981481</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>46009.49032407408</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         <v>45272.57488425926</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32980,7 +32980,7 @@
         <v>45771</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33042,7 +33042,7 @@
         <v>46009.49537037037</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>46003</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33161,7 +33161,7 @@
         <v>45706</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33223,7 +33223,7 @@
         <v>45706.42756944444</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33285,7 +33285,7 @@
         <v>46009.70395833333</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33342,7 +33342,7 @@
         <v>46009.48523148148</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33399,7 +33399,7 @@
         <v>46013</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33461,7 +33461,7 @@
         <v>46052</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>45054</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33575,7 +33575,7 @@
         <v>44488</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33632,7 +33632,7 @@
         <v>45917.67810185185</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33694,7 +33694,7 @@
         <v>44956.38069444444</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33751,7 +33751,7 @@
         <v>44903.91303240741</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33808,7 +33808,7 @@
         <v>46010.56289351852</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33865,7 +33865,7 @@
         <v>46013.40663194445</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33927,7 +33927,7 @@
         <v>46055.3046875</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33984,7 +33984,7 @@
         <v>45698.45962962963</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34041,7 +34041,7 @@
         <v>45210.61107638889</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34098,7 +34098,7 @@
         <v>46057.6734375</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>46056.68332175926</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34212,7 +34212,7 @@
         <v>45658.64216435186</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>46056.65833333333</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34326,7 +34326,7 @@
         <v>45561.69032407407</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34383,7 +34383,7 @@
         <v>46057.6677662037</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34440,7 +34440,7 @@
         <v>45063.59164351852</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34497,7 +34497,7 @@
         <v>45583</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34554,7 +34554,7 @@
         <v>45542</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34611,7 +34611,7 @@
         <v>45282</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34668,7 +34668,7 @@
         <v>45412.41252314814</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34725,7 +34725,7 @@
         <v>45295.4080787037</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34787,7 +34787,7 @@
         <v>46058.57645833334</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34844,7 +34844,7 @@
         <v>45629</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34901,7 +34901,7 @@
         <v>45700.71971064815</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34958,7 +34958,7 @@
         <v>44894</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35015,7 +35015,7 @@
         <v>45253</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35072,7 +35072,7 @@
         <v>45673</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35129,7 +35129,7 @@
         <v>45009</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         <v>45553</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35243,7 +35243,7 @@
         <v>45660.45284722222</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35300,7 +35300,7 @@
         <v>44522.63969907408</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35357,7 +35357,7 @@
         <v>45266</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35414,7 +35414,7 @@
         <v>45266</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35471,7 +35471,7 @@
         <v>45173</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35528,7 +35528,7 @@
         <v>45679.36646990741</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35585,7 +35585,7 @@
         <v>44956.36164351852</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35642,7 +35642,7 @@
         <v>45470.32200231482</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35699,7 +35699,7 @@
         <v>45415.9425</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35761,7 +35761,7 @@
         <v>45415.94267361111</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35823,7 +35823,7 @@
         <v>44894</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35880,7 +35880,7 @@
         <v>44901</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35937,7 +35937,7 @@
         <v>44970.53221064815</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35994,7 +35994,7 @@
         <v>45054.92533564815</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36051,7 +36051,7 @@
         <v>45054.92546296296</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36108,7 +36108,7 @@
         <v>45748.68107638889</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36170,7 +36170,7 @@
         <v>45587</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36227,7 +36227,7 @@
         <v>45392</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36284,7 +36284,7 @@
         <v>45173</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36341,7 +36341,7 @@
         <v>45044</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36398,7 +36398,7 @@
         <v>45708.58747685186</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36455,7 +36455,7 @@
         <v>44712</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36512,7 +36512,7 @@
         <v>45737.52472222222</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36569,7 +36569,7 @@
         <v>45560.5528125</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36631,7 +36631,7 @@
         <v>45617</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36693,7 +36693,7 @@
         <v>45714.51996527778</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36750,7 +36750,7 @@
         <v>45215</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36807,7 +36807,7 @@
         <v>45225</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36864,7 +36864,7 @@
         <v>45044</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36921,7 +36921,7 @@
         <v>45481</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36978,7 +36978,7 @@
         <v>44974.63518518519</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37035,7 +37035,7 @@
         <v>44974.63965277778</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37092,7 +37092,7 @@
         <v>45772.4859375</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37149,7 +37149,7 @@
         <v>45772.48976851852</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37206,7 +37206,7 @@
         <v>45560.55261574074</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37268,7 +37268,7 @@
         <v>45170</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37325,7 +37325,7 @@
         <v>45576.42760416667</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         <v>45364.40600694445</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37444,7 +37444,7 @@
         <v>45049</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37501,7 +37501,7 @@
         <v>45251.37363425926</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37558,7 +37558,7 @@
         <v>45714.49189814815</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37615,7 +37615,7 @@
         <v>44992</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37672,7 +37672,7 @@
         <v>44964.94399305555</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37734,7 +37734,7 @@
         <v>44964.9444212963</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37796,7 +37796,7 @@
         <v>44532.91938657407</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37853,7 +37853,7 @@
         <v>44980</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37910,7 +37910,7 @@
         <v>44903.88601851852</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37967,7 +37967,7 @@
         <v>45659.46702546296</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38024,7 +38024,7 @@
         <v>45266</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38081,7 +38081,7 @@
         <v>45266</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38138,7 +38138,7 @@
         <v>44862.59858796297</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38195,7 +38195,7 @@
         <v>45700.36609953704</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38257,7 +38257,7 @@
         <v>45058</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38314,7 +38314,7 @@
         <v>45573</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38371,7 +38371,7 @@
         <v>45411.96709490741</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38428,7 +38428,7 @@
         <v>45393</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38485,7 +38485,7 @@
         <v>45247</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38542,7 +38542,7 @@
         <v>44995</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38599,7 +38599,7 @@
         <v>45237</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38656,7 +38656,7 @@
         <v>45419.94920138889</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38718,7 +38718,7 @@
         <v>45419</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38780,7 +38780,7 @@
         <v>45629</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38837,7 +38837,7 @@
         <v>45679.6761574074</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38894,7 +38894,7 @@
         <v>45429</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38951,7 +38951,7 @@
         <v>45771.69822916666</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39013,7 +39013,7 @@
         <v>45681.67023148148</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39070,7 +39070,7 @@
         <v>45566</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39127,7 +39127,7 @@
         <v>45446</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39189,7 +39189,7 @@
         <v>44603</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39246,7 +39246,7 @@
         <v>45145.38618055556</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39308,7 +39308,7 @@
         <v>45708.57165509259</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39365,7 +39365,7 @@
         <v>45261.41116898148</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39422,7 +39422,7 @@
         <v>44379</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39479,7 +39479,7 @@
         <v>45589.64586805556</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39536,7 +39536,7 @@
         <v>45644.44634259259</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39593,7 +39593,7 @@
         <v>45204</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39650,7 +39650,7 @@
         <v>45685.638125</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39707,7 +39707,7 @@
         <v>45175.95792824074</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39769,7 +39769,7 @@
         <v>44894</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         <v>45719</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39883,7 +39883,7 @@
         <v>45163.6749537037</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39940,7 +39940,7 @@
         <v>45641.50518518518</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39997,7 +39997,7 @@
         <v>45728.65701388889</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40059,7 +40059,7 @@
         <v>44706.92644675926</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40121,7 +40121,7 @@
         <v>44706.92648148148</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40183,7 +40183,7 @@
         <v>45755.33635416667</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40240,7 +40240,7 @@
         <v>45266</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40297,7 +40297,7 @@
         <v>45266</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40354,7 +40354,7 @@
         <v>44965.94059027778</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40416,7 +40416,7 @@
         <v>45112</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40473,7 +40473,7 @@
         <v>45198.62413194445</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40535,7 +40535,7 @@
         <v>44722.56104166667</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40592,7 +40592,7 @@
         <v>45054</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40649,7 +40649,7 @@
         <v>45035.92694444444</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         <v>45685</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40763,7 +40763,7 @@
         <v>44924.40385416667</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40820,7 +40820,7 @@
         <v>45036</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40877,7 +40877,7 @@
         <v>44445.56966435185</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40934,7 +40934,7 @@
         <v>45777.39760416667</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40991,7 +40991,7 @@
         <v>45776</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>45005</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>45785.65818287037</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41172,7 +41172,7 @@
         <v>45784</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41229,7 +41229,7 @@
         <v>45405</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41286,7 +41286,7 @@
         <v>45429</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41343,7 +41343,7 @@
         <v>45748</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41405,7 +41405,7 @@
         <v>45268</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41462,7 +41462,7 @@
         <v>44917</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41519,7 +41519,7 @@
         <v>45789.42767361111</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41576,7 +41576,7 @@
         <v>45791.59445601852</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41633,7 +41633,7 @@
         <v>45790.65724537037</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41695,7 +41695,7 @@
         <v>45791.3437037037</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41752,7 +41752,7 @@
         <v>45791.65684027778</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>45790.65712962963</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41896,7 +41896,7 @@
         <v>45793</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41958,7 +41958,7 @@
         <v>45792.6985300926</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42020,7 +42020,7 @@
         <v>45796</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42082,7 +42082,7 @@
         <v>45796.38576388889</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>

--- a/Översikt KALIX.xlsx
+++ b/Översikt KALIX.xlsx
@@ -575,7 +575,7 @@
         <v>45188</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44530</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>45846.56134259259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44510</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44369</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>44805</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>44510</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>45505</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>45268.71260416666</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45617</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>44442.42032407408</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>44728.61793981482</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>44467</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>44791.61581018518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>44286</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>45888.65668981482</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>45810</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>45817.3472337963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>44274</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>46030.54833333333</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>46036.60225694445</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>46002.45457175926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>45063</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>44860.95483796296</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>44375</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>44245</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         <v>44449</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>44489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>44812</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>44853.92756944444</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>44327</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>44298</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>44497</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>44577.70938657408</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>44344</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>44756</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>44577.69899305556</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>44862</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>44669</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>44379</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>44287</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>44456.41886574074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44720</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44879</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44776.66797453703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>44880</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>44286</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>44300</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>44319</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>44319</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>44319</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44391</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44512</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>44851</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44381</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44435</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>44455</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>44459</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>44469.40788194445</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>44379</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>44529</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>44354</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>44386</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>44544</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>44350</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>44785.58358796296</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44435.62583333333</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         <v>44874.48328703704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5271,7 +5271,7 @@
         <v>44361.44074074074</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>44371</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>44382</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5442,7 +5442,7 @@
         <v>44382</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5499,7 +5499,7 @@
         <v>44461</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>44470.55629629629</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>44636.94204861111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>44733.4328125</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>44860.95476851852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44833</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44368</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44426</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>44350</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>44785</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44721</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44522.64253472222</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44386</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>44244</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>44508.92340277778</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>45229</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>45748.64383101852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>45748.68537037037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>45457.43016203704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44340.65699074074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>45537.82020833333</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>44903.87568287037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44648.40035879629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>45204</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>45266</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44816</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>45569</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>45280</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>45585.88642361111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>44512</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>44874.95347222222</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>45589.45561342593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>45462.60603009259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>44442</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>44529</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>44733.64865740741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>45600.43767361111</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>45117.44940972222</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>45681.67431712963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>45295.41796296297</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>45712.65888888889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>45574</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>45645.39828703704</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>45761.48025462963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>44945</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>45600.41362268518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>44894</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>44894</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>45665.45089120371</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>45712.65548611111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>45629</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>45147</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>44970.52166666667</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>44970.54061342592</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>45259.65206018519</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>45266</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44377</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>45363.46945601852</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>45798.59459490741</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>45645.55509259259</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>45173</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>45799.61495370371</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>45799.65663194445</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>45799.61538194444</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>45799.49063657408</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>45771.3512962963</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>45799.51076388889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>45799.51096064815</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45799.63135416667</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>45798.59416666667</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>45798.59457175926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>45681.36236111111</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>45799.6247337963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>45714.53447916666</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>45586.5952662037</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>45541</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>45406</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>45708.58085648148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>45555.49041666667</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>45510.97233796296</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>45170</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>45225</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>45805.57423611111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>45810.44814814815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>45190</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>45811.69864583333</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>45660.45283564815</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>45811.69857638889</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>45811.69862268519</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>45841.59421296296</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>45810.64746527778</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>45692.63893518518</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>45721</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>45719.51630787037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>45719.52578703704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>45811.63658564815</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11136,7 +11136,7 @@
         <v>45889.40050925926</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11193,7 +11193,7 @@
         <v>45321</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11250,7 +11250,7 @@
         <v>45737.51363425926</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11307,7 +11307,7 @@
         <v>45799.51091435185</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
         <v>45890.39974537037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>45667</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>45259.6208912037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>45813.34603009259</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>45890.67737268518</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>45201.65041666666</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>45812.38606481482</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>45816.57137731482</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>45816.58204861111</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>45816.63277777778</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>45816.69568287037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>45817.46805555555</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>45815.63855324074</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>45815.68703703704</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>45816.58614583333</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>45816.62489583333</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>45816.63829861111</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>45816.68195601852</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>45816.69780092593</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>45816.57533564815</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>45816.63599537037</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>45816.64159722222</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>45816.65658564815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>45816.66149305556</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>45816.66796296297</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>45816.68586805555</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>45816.69010416666</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>45892</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>45892</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>45815.67590277778</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>45816.58965277778</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>45816.59293981481</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>45816.65878472223</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13250,7 +13250,7 @@
         <v>45817.59512731482</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>45895.36069444445</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>45817.46548611111</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>45815.69028935185</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>45816.57856481482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>45815.68055555555</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>44379</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>45835.61560185185</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>45819.60979166667</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>45898.34438657408</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>45827.32677083334</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         <v>45784.51063657407</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         <v>45259.60369212963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         <v>45222.70152777778</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14058,7 +14058,7 @@
         <v>45660.46960648148</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         <v>45820.57342592593</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>45820.57344907407</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>45903</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>45903.41075231481</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>45415.9237037037</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44580</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>45904.36505787037</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>45904.40694444445</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>45909</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>45906.56337962963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>45569</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>45246</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>45909.60957175926</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>45825.44418981481</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>45708.56344907408</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>45708.57732638889</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>45909.42157407408</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>45825.4837962963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>45910.41881944444</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>45827.32819444445</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>45915.6815162037</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>45827.38586805556</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>45827.57340277778</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>45915.67467592593</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>45894.35148148148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>45912.36501157407</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>44936.40097222223</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>45917.67791666667</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         <v>45916</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>45259.64317129629</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>45918</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>45191</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>44244</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>45831.55346064815</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>45919</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>45461</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>45321.38069444444</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>45609.51568287037</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>45832.7091087963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>45699.34594907407</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44924</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>45770</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>45832.54734953704</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>44529</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>45063</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>45714.49681712963</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>45925.71914351852</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>45925.69836805556</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>45667.44277777777</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>45835.61568287037</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>45079</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>45929.63689814815</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>45929.53196759259</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>45355.59298611111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>45926.50899305556</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>45594.71903935185</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>45770.65853009259</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>45835.61546296296</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>45835.61557870371</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>45586.47526620371</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>45553.70454861111</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>45930.63586805556</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>45681.6428125</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>45681.65133101852</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>45681.66283564815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>45931.61518518518</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17922,7 +17922,7 @@
         <v>45930.63688657407</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17984,7 +17984,7 @@
         <v>45930.59421296296</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>45932.43586805555</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>45932</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>45932.31650462963</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>45933</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>45932.53887731482</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>45936.39930555555</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>45936.46914351852</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>45936.53765046296</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>45933.83770833333</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>45936.44674768519</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>45936.45769675926</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>45936.39701388889</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>45936.40606481482</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>45936.54344907407</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>45937.44954861111</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>45841</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>45937.31103009259</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>45939.63583333333</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19082,7 +19082,7 @@
         <v>45813.54255787037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19139,7 +19139,7 @@
         <v>45938.60688657407</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>45938.68094907407</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19253,7 +19253,7 @@
         <v>45678.60017361111</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19310,7 +19310,7 @@
         <v>45105.92538194444</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19367,7 +19367,7 @@
         <v>45842.44878472222</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>45943.64177083333</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>45943</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>45641.49390046296</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>45226</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19657,7 +19657,7 @@
         <v>45943.37773148148</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19714,7 +19714,7 @@
         <v>45940.57333333333</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19776,7 +19776,7 @@
         <v>45401</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19833,7 +19833,7 @@
         <v>45943</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19890,7 +19890,7 @@
         <v>44776.46675925926</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>45842.42744212963</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20009,7 +20009,7 @@
         <v>45842.42745370371</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         <v>45944.64761574074</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20123,7 +20123,7 @@
         <v>45945.60736111111</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20180,7 +20180,7 @@
         <v>45945.6286574074</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20237,7 +20237,7 @@
         <v>45945</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>45945.62322916667</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20351,7 +20351,7 @@
         <v>45945.40769675926</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20408,7 +20408,7 @@
         <v>45510.9696412037</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20470,7 +20470,7 @@
         <v>45945.42207175926</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20527,7 +20527,7 @@
         <v>45946.641875</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20584,7 +20584,7 @@
         <v>45719.39393518519</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20641,7 +20641,7 @@
         <v>45931</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20698,7 +20698,7 @@
         <v>45946.63607638889</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20760,7 +20760,7 @@
         <v>45946.6365162037</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>45638.63635416667</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>45950.62233796297</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>45587</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>45950.61921296296</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21065,7 +21065,7 @@
         <v>45851.86467592593</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21122,7 +21122,7 @@
         <v>45950</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21179,7 +21179,7 @@
         <v>45805.62303240741</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>45859.62895833333</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>45859.62603009259</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>45063.62370370371</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>45950.61949074074</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21469,7 +21469,7 @@
         <v>45950</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>45951.67826388889</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>45950</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>45950</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>45772.49703703704</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>45952.63594907407</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>44981</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>45866.526875</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>45867.53866898148</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>45747.57925925926</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>45952.59446759259</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>45259.46042824074</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>45869.59483796296</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>45869.59835648148</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>45681.65606481482</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>45869.61380787037</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>45869.60674768518</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>45869.61506944444</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>45869.61163194444</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>45265</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>45215</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>45266</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>45266</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>45639.51585648148</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>45054</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>45460</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>45632.57121527778</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>45406.9640625</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>45810</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>45881.57527777777</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>45385.44969907407</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>45881.5740162037</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>45881.57421296297</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23375,7 +23375,7 @@
         <v>45859.6357175926</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>45965.42752314815</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>45881.57375</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>45964.49586805556</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>45881.57342592593</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>45881.57408564815</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23752,7 +23752,7 @@
         <v>45238.64976851852</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23809,7 +23809,7 @@
         <v>45243</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23866,7 +23866,7 @@
         <v>45881.57458333333</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23928,7 +23928,7 @@
         <v>45965.42761574074</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23985,7 +23985,7 @@
         <v>45965.48136574074</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24042,7 +24042,7 @@
         <v>45964</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24099,7 +24099,7 @@
         <v>45691.49449074074</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24156,7 +24156,7 @@
         <v>45881.57532407407</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24218,7 +24218,7 @@
         <v>45881.57380787037</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>45967.36601851852</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24357,7 +24357,7 @@
         <v>45971.46945601852</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24414,7 +24414,7 @@
         <v>45971.44833333333</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24471,7 +24471,7 @@
         <v>45968.47590277778</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24528,7 +24528,7 @@
         <v>45971.46922453704</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24585,7 +24585,7 @@
         <v>45971.44854166666</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24642,7 +24642,7 @@
         <v>45968.46083333333</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24699,7 +24699,7 @@
         <v>45772.49487268519</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24756,7 +24756,7 @@
         <v>45841.61493055556</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         <v>44706.92641203704</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24875,7 +24875,7 @@
         <v>45975.43135416666</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24932,7 +24932,7 @@
         <v>45462.6018287037</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24994,7 +24994,7 @@
         <v>45541</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25051,7 +25051,7 @@
         <v>45037</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25108,7 +25108,7 @@
         <v>45735</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25165,7 +25165,7 @@
         <v>45740</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25222,7 +25222,7 @@
         <v>45979</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>46021.54532407408</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>45642.69934027778</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>45246.58479166667</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25450,7 +25450,7 @@
         <v>46021.48987268518</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         <v>46021.4858912037</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25564,7 +25564,7 @@
         <v>45816</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25621,7 +25621,7 @@
         <v>45840</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>45582.76248842593</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25735,7 +25735,7 @@
         <v>45735</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25792,7 +25792,7 @@
         <v>45979</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25849,7 +25849,7 @@
         <v>45980.2478125</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         <v>45980.2719212963</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25963,7 +25963,7 @@
         <v>45981.28849537037</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>45251</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>45673</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>45981.40686342592</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26196,7 +26196,7 @@
         <v>45457</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         <v>44950</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26310,7 +26310,7 @@
         <v>45980.27033564815</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26367,7 +26367,7 @@
         <v>45980.24248842592</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>44581</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>45754.53125</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>44907</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>44903</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
         <v>45419.949375</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>45985.38268518518</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>45985.4762962963</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>45706.42768518518</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>45985.4790162037</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>45985.58087962963</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         <v>45985.44723379629</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27076,7 +27076,7 @@
         <v>45985.43519675926</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>45985.48043981481</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27195,7 +27195,7 @@
         <v>46021.48355324074</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27252,7 +27252,7 @@
         <v>45985.31954861111</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27309,7 +27309,7 @@
         <v>46029</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27366,7 +27366,7 @@
         <v>45112</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27423,7 +27423,7 @@
         <v>46029.55248842593</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27480,7 +27480,7 @@
         <v>46029.55306712963</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27537,7 +27537,7 @@
         <v>45986.52354166667</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27599,7 +27599,7 @@
         <v>45986.52859953704</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27661,7 +27661,7 @@
         <v>44901</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>46029.54219907407</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27780,7 +27780,7 @@
         <v>46031.52017361111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         <v>46030</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27894,7 +27894,7 @@
         <v>45988.65793981482</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>46031.42599537037</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28008,7 +28008,7 @@
         <v>45641.52986111111</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28065,7 +28065,7 @@
         <v>45989</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28127,7 +28127,7 @@
         <v>45213.65107638889</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>45575.36655092592</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28241,7 +28241,7 @@
         <v>46031.42508101852</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28298,7 +28298,7 @@
         <v>45988.65796296296</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28355,7 +28355,7 @@
         <v>45299.93310185185</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28412,7 +28412,7 @@
         <v>45730.53193287037</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>44335</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         <v>45993.54071759259</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28588,7 +28588,7 @@
         <v>45993.5291087963</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>45314</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28702,7 +28702,7 @@
         <v>45993.63994212963</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28759,7 +28759,7 @@
         <v>46035.64942129629</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28816,7 +28816,7 @@
         <v>45308</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28873,7 +28873,7 @@
         <v>45993.5033912037</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>45492</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28992,7 +28992,7 @@
         <v>45560.55266203704</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29054,7 +29054,7 @@
         <v>45112.32819444445</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29111,7 +29111,7 @@
         <v>45698</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>46030.61548611111</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29225,7 +29225,7 @@
         <v>44749.6044675926</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>45994.64605324074</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29344,7 +29344,7 @@
         <v>45723.36494212963</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29401,7 +29401,7 @@
         <v>45719.53412037037</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29458,7 +29458,7 @@
         <v>45719.54244212963</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29515,7 +29515,7 @@
         <v>46035.61501157407</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29572,7 +29572,7 @@
         <v>45629</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29629,7 +29629,7 @@
         <v>45994.5734375</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29686,7 +29686,7 @@
         <v>44898.98259259259</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29743,7 +29743,7 @@
         <v>45995.59439814815</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>46036.61466435185</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29867,7 +29867,7 @@
         <v>45994.66059027778</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29924,7 +29924,7 @@
         <v>46035.65393518518</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>45993.88663194444</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30038,7 +30038,7 @@
         <v>45993.87747685185</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30095,7 +30095,7 @@
         <v>45993.88168981481</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30152,7 +30152,7 @@
         <v>45772.48039351852</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30209,7 +30209,7 @@
         <v>46030</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30266,7 +30266,7 @@
         <v>45999.4484375</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30323,7 +30323,7 @@
         <v>45210</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30385,7 +30385,7 @@
         <v>45622</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30442,7 +30442,7 @@
         <v>46041.6484375</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30499,7 +30499,7 @@
         <v>45996.6802662037</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30556,7 +30556,7 @@
         <v>44520.84179398148</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30613,7 +30613,7 @@
         <v>46041.65288194444</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30670,7 +30670,7 @@
         <v>46041.58980324074</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30727,7 +30727,7 @@
         <v>45175.95799768518</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30789,7 +30789,7 @@
         <v>46001.47069444445</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30846,7 +30846,7 @@
         <v>45602.43773148148</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30903,7 +30903,7 @@
         <v>46003.39039351852</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30960,7 +30960,7 @@
         <v>46003</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31017,7 +31017,7 @@
         <v>46003</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31074,7 +31074,7 @@
         <v>46003.38666666667</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31131,7 +31131,7 @@
         <v>46003.38894675926</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31188,7 +31188,7 @@
         <v>46003</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31245,7 +31245,7 @@
         <v>46003.47017361111</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31302,7 +31302,7 @@
         <v>46003</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31359,7 +31359,7 @@
         <v>45588.345625</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31416,7 +31416,7 @@
         <v>46003</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31473,7 +31473,7 @@
         <v>46002.41486111111</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31530,7 +31530,7 @@
         <v>46003.47009259259</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>46003</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31644,7 +31644,7 @@
         <v>46003</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31701,7 +31701,7 @@
         <v>44964.9440625</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31763,7 +31763,7 @@
         <v>46003.46508101852</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31820,7 +31820,7 @@
         <v>46003</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31877,7 +31877,7 @@
         <v>46003</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31934,7 +31934,7 @@
         <v>46003.47005787037</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31991,7 +31991,7 @@
         <v>46003.39394675926</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>46003.5743287037</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32105,7 +32105,7 @@
         <v>45159</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32162,7 +32162,7 @@
         <v>45302.70443287037</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32219,7 +32219,7 @@
         <v>44970</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32276,7 +32276,7 @@
         <v>46003</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32333,7 +32333,7 @@
         <v>45772</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32395,7 +32395,7 @@
         <v>45632.47152777778</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32452,7 +32452,7 @@
         <v>46009.63621527778</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32514,7 +32514,7 @@
         <v>45981</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32571,7 +32571,7 @@
         <v>45420.96472222222</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>45678.60608796297</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>45204.41158564815</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32747,7 +32747,7 @@
         <v>46009</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32809,7 +32809,7 @@
         <v>46009.70168981481</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>46009.49032407408</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         <v>45272.57488425926</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32980,7 +32980,7 @@
         <v>45771</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33042,7 +33042,7 @@
         <v>46009.49537037037</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>46003</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33161,7 +33161,7 @@
         <v>45706</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33223,7 +33223,7 @@
         <v>45706.42756944444</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33285,7 +33285,7 @@
         <v>46009.70395833333</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33342,7 +33342,7 @@
         <v>46009.48523148148</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33399,7 +33399,7 @@
         <v>46013</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33461,7 +33461,7 @@
         <v>46052</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>45054</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33575,7 +33575,7 @@
         <v>44488</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33632,7 +33632,7 @@
         <v>45917.67810185185</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33694,7 +33694,7 @@
         <v>44956.38069444444</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33751,7 +33751,7 @@
         <v>44903.91303240741</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33808,7 +33808,7 @@
         <v>46010.56289351852</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33865,7 +33865,7 @@
         <v>46013.40663194445</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33927,7 +33927,7 @@
         <v>46055.3046875</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33984,7 +33984,7 @@
         <v>45698.45962962963</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34041,7 +34041,7 @@
         <v>45210.61107638889</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34098,7 +34098,7 @@
         <v>46057.6734375</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>46056.68332175926</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34212,7 +34212,7 @@
         <v>45658.64216435186</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>46056.65833333333</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34326,7 +34326,7 @@
         <v>45561.69032407407</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34383,7 +34383,7 @@
         <v>46057.6677662037</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34440,7 +34440,7 @@
         <v>45063.59164351852</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34497,7 +34497,7 @@
         <v>45583</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34554,7 +34554,7 @@
         <v>45542</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34611,7 +34611,7 @@
         <v>45282</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34668,7 +34668,7 @@
         <v>45412.41252314814</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34725,7 +34725,7 @@
         <v>45295.4080787037</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34787,7 +34787,7 @@
         <v>46058.57645833334</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34844,7 +34844,7 @@
         <v>45629</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34901,7 +34901,7 @@
         <v>45700.71971064815</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34958,7 +34958,7 @@
         <v>44894</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35015,7 +35015,7 @@
         <v>45253</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35072,7 +35072,7 @@
         <v>45673</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35129,7 +35129,7 @@
         <v>45009</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         <v>45553</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35243,7 +35243,7 @@
         <v>45660.45284722222</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35300,7 +35300,7 @@
         <v>44522.63969907408</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35357,7 +35357,7 @@
         <v>45266</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35414,7 +35414,7 @@
         <v>45266</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35471,7 +35471,7 @@
         <v>45173</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35528,7 +35528,7 @@
         <v>45679.36646990741</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35585,7 +35585,7 @@
         <v>44956.36164351852</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35642,7 +35642,7 @@
         <v>45470.32200231482</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35699,7 +35699,7 @@
         <v>45415.9425</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35761,7 +35761,7 @@
         <v>45415.94267361111</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35823,7 +35823,7 @@
         <v>44894</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35880,7 +35880,7 @@
         <v>44901</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35937,7 +35937,7 @@
         <v>44970.53221064815</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35994,7 +35994,7 @@
         <v>45054.92533564815</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36051,7 +36051,7 @@
         <v>45054.92546296296</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36108,7 +36108,7 @@
         <v>45748.68107638889</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36170,7 +36170,7 @@
         <v>45587</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36227,7 +36227,7 @@
         <v>45392</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36284,7 +36284,7 @@
         <v>45173</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36341,7 +36341,7 @@
         <v>45044</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36398,7 +36398,7 @@
         <v>45708.58747685186</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36455,7 +36455,7 @@
         <v>44712</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36512,7 +36512,7 @@
         <v>45737.52472222222</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36569,7 +36569,7 @@
         <v>45560.5528125</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36631,7 +36631,7 @@
         <v>45617</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36693,7 +36693,7 @@
         <v>45714.51996527778</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36750,7 +36750,7 @@
         <v>45215</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36807,7 +36807,7 @@
         <v>45225</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36864,7 +36864,7 @@
         <v>45044</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36921,7 +36921,7 @@
         <v>45481</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36978,7 +36978,7 @@
         <v>44974.63518518519</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37035,7 +37035,7 @@
         <v>44974.63965277778</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37092,7 +37092,7 @@
         <v>45772.4859375</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37149,7 +37149,7 @@
         <v>45772.48976851852</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37206,7 +37206,7 @@
         <v>45560.55261574074</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37268,7 +37268,7 @@
         <v>45170</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37325,7 +37325,7 @@
         <v>45576.42760416667</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         <v>45364.40600694445</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37444,7 +37444,7 @@
         <v>45049</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37501,7 +37501,7 @@
         <v>45251.37363425926</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37558,7 +37558,7 @@
         <v>45714.49189814815</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37615,7 +37615,7 @@
         <v>44992</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37672,7 +37672,7 @@
         <v>44964.94399305555</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37734,7 +37734,7 @@
         <v>44964.9444212963</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37796,7 +37796,7 @@
         <v>44532.91938657407</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37853,7 +37853,7 @@
         <v>44980</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37910,7 +37910,7 @@
         <v>44903.88601851852</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37967,7 +37967,7 @@
         <v>45659.46702546296</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38024,7 +38024,7 @@
         <v>45266</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38081,7 +38081,7 @@
         <v>45266</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38138,7 +38138,7 @@
         <v>44862.59858796297</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38195,7 +38195,7 @@
         <v>45700.36609953704</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38257,7 +38257,7 @@
         <v>45058</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38314,7 +38314,7 @@
         <v>45573</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38371,7 +38371,7 @@
         <v>45411.96709490741</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38428,7 +38428,7 @@
         <v>45393</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38485,7 +38485,7 @@
         <v>45247</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38542,7 +38542,7 @@
         <v>44995</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38599,7 +38599,7 @@
         <v>45237</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38656,7 +38656,7 @@
         <v>45419.94920138889</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38718,7 +38718,7 @@
         <v>45419</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38780,7 +38780,7 @@
         <v>45629</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38837,7 +38837,7 @@
         <v>45679.6761574074</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38894,7 +38894,7 @@
         <v>45429</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38951,7 +38951,7 @@
         <v>45771.69822916666</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39013,7 +39013,7 @@
         <v>45681.67023148148</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39070,7 +39070,7 @@
         <v>45566</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39127,7 +39127,7 @@
         <v>45446</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39189,7 +39189,7 @@
         <v>44603</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39246,7 +39246,7 @@
         <v>45145.38618055556</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39308,7 +39308,7 @@
         <v>45708.57165509259</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39365,7 +39365,7 @@
         <v>45261.41116898148</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39422,7 +39422,7 @@
         <v>44379</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39479,7 +39479,7 @@
         <v>45589.64586805556</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39536,7 +39536,7 @@
         <v>45644.44634259259</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39593,7 +39593,7 @@
         <v>45204</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39650,7 +39650,7 @@
         <v>45685.638125</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39707,7 +39707,7 @@
         <v>45175.95792824074</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39769,7 +39769,7 @@
         <v>44894</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         <v>45719</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39883,7 +39883,7 @@
         <v>45163.6749537037</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39940,7 +39940,7 @@
         <v>45641.50518518518</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39997,7 +39997,7 @@
         <v>45728.65701388889</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40059,7 +40059,7 @@
         <v>44706.92644675926</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40121,7 +40121,7 @@
         <v>44706.92648148148</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40183,7 +40183,7 @@
         <v>45755.33635416667</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40240,7 +40240,7 @@
         <v>45266</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40297,7 +40297,7 @@
         <v>45266</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40354,7 +40354,7 @@
         <v>44965.94059027778</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40416,7 +40416,7 @@
         <v>45112</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40473,7 +40473,7 @@
         <v>45198.62413194445</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40535,7 +40535,7 @@
         <v>44722.56104166667</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40592,7 +40592,7 @@
         <v>45054</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40649,7 +40649,7 @@
         <v>45035.92694444444</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         <v>45685</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40763,7 +40763,7 @@
         <v>44924.40385416667</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40820,7 +40820,7 @@
         <v>45036</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40877,7 +40877,7 @@
         <v>44445.56966435185</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40934,7 +40934,7 @@
         <v>45777.39760416667</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40991,7 +40991,7 @@
         <v>45776</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>45005</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>45785.65818287037</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41172,7 +41172,7 @@
         <v>45784</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41229,7 +41229,7 @@
         <v>45405</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41286,7 +41286,7 @@
         <v>45429</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41343,7 +41343,7 @@
         <v>45748</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41405,7 +41405,7 @@
         <v>45268</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41462,7 +41462,7 @@
         <v>44917</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41519,7 +41519,7 @@
         <v>45789.42767361111</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41576,7 +41576,7 @@
         <v>45791.59445601852</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41633,7 +41633,7 @@
         <v>45790.65724537037</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41695,7 +41695,7 @@
         <v>45791.3437037037</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41752,7 +41752,7 @@
         <v>45791.65684027778</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>45790.65712962963</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41896,7 +41896,7 @@
         <v>45793</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41958,7 +41958,7 @@
         <v>45792.6985300926</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42020,7 +42020,7 @@
         <v>45796</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42082,7 +42082,7 @@
         <v>45796.38576388889</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
